--- a/data/naver_data.xlsx
+++ b/data/naver_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work_py\day10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_flask\testPorject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDD64E-17E3-4836-BD38-7572E4072087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4E2B4F-0F1B-4943-A5A4-B65F41366B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41AC63A0-3264-4B8F-A388-0025CE3197F7}"/>
   </bookViews>
@@ -34,63 +34,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+  <si>
+    <t>춘천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강릉</t>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백령도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울릉도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>서울</t>
-  </si>
-  <si>
-    <t>춘천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강릉</t>
-  </si>
-  <si>
-    <t>대전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백령도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울릉도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into naver (area, lat, lng) values (</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,28 +460,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CAD6F6-1D4B-48C1-9286-94FE829B929C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="78.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>37.555777688548602</v>
@@ -484,10 +492,17 @@
       <c r="C2">
         <v>126.98507008707701</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="str">
+        <f>D2&amp;"'"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"');"</f>
+        <v>insert into naver (area, lat, lng) values ('서울','37.5557776885486','126.985070087077');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>37.891319366030501</v>
@@ -495,10 +510,17 @@
       <c r="C3">
         <v>127.735243066563</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H13" si="0">D3&amp;"'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"');"</f>
+        <v>insert into naver (area, lat, lng) values ('춘천','37.8913193660305','127.735243066563');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>37.489966005486103</v>
@@ -506,10 +528,17 @@
       <c r="C4">
         <v>130.93944212843999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('울릉도','37.4899660054861','130.93944212844');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>37.724986558718399</v>
@@ -517,10 +546,17 @@
       <c r="C5">
         <v>128.85962924507501</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('강릉','37.7249865587184','128.859629245075');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>37.962140100084703</v>
@@ -528,10 +564,17 @@
       <c r="C6">
         <v>124.65757980300501</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('백령도','37.9621401000847','124.657579803005');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>36.380665403137698</v>
@@ -539,10 +582,17 @@
       <c r="C7">
         <v>127.41984913426001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('대전','36.3806654031377','127.41984913426');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>36.626755630994801</v>
@@ -550,10 +600,17 @@
       <c r="C8">
         <v>127.496515899621</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('청주','36.6267556309948','127.496515899621');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>35.8638923944849</v>
@@ -561,10 +618,17 @@
       <c r="C9">
         <v>128.57404424111701</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('대구','35.8638923944849','128.574044241117');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>35.830997444321902</v>
@@ -572,10 +636,17 @@
       <c r="C10">
         <v>127.142023264096</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('전주','35.8309974443219','127.142023264096');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>35.206603946237003</v>
@@ -583,10 +654,17 @@
       <c r="C11">
         <v>126.866098962607</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('광주','35.206603946237','126.866098962607');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>35.201565794528399</v>
@@ -594,16 +672,30 @@
       <c r="C12">
         <v>129.05806483696901</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('부산','35.2015657945284','129.058064836969');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>33.414908254792103</v>
       </c>
       <c r="C13">
         <v>126.795593265549</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into naver (area, lat, lng) values ('제주','33.4149082547921','126.795593265549');</v>
       </c>
     </row>
   </sheetData>
